--- a/data/output/processing_statistics.xlsx
+++ b/data/output/processing_statistics.xlsx
@@ -461,11 +461,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>350298</v>
+        <v>352928</v>
       </c>
     </row>
     <row r="3">
@@ -479,11 +479,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1067917</v>
+        <v>1072791</v>
       </c>
     </row>
     <row r="4">
@@ -497,11 +497,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>233785</v>
+        <v>234207</v>
       </c>
     </row>
     <row r="5">
@@ -515,11 +515,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1008019</v>
+        <v>1019536</v>
       </c>
     </row>
     <row r="6">
@@ -533,11 +533,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5050941</v>
+        <v>5084237</v>
       </c>
     </row>
     <row r="7">
@@ -551,11 +551,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2638321</v>
+        <v>2645740</v>
       </c>
     </row>
     <row r="8">
@@ -569,11 +569,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100876</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="9">
@@ -587,11 +587,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1241045</v>
+        <v>1248800</v>
       </c>
     </row>
     <row r="10">
@@ -605,11 +605,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1958069</v>
+        <v>1966481</v>
       </c>
     </row>
     <row r="11">
@@ -623,11 +623,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2543477</v>
+        <v>2548231</v>
       </c>
     </row>
     <row r="12">
@@ -641,11 +641,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1291228</v>
+        <v>1296558</v>
       </c>
     </row>
     <row r="13">
@@ -659,11 +659,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>972875</v>
+        <v>976936</v>
       </c>
     </row>
     <row r="14">
@@ -677,11 +677,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7037785</v>
+        <v>7071457</v>
       </c>
     </row>
     <row r="15">
@@ -695,11 +695,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2303752</v>
+        <v>2308189</v>
       </c>
     </row>
     <row r="16">
@@ -713,11 +713,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1574045</v>
+        <v>1581090</v>
       </c>
     </row>
     <row r="17">
@@ -731,11 +731,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3339188</v>
+        <v>3344884</v>
       </c>
     </row>
     <row r="18">
@@ -749,11 +749,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3054336</v>
+        <v>3071745</v>
       </c>
     </row>
     <row r="19">
@@ -767,11 +767,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1301116</v>
+        <v>1308471</v>
       </c>
     </row>
     <row r="20">
@@ -785,11 +785,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2095500</v>
+        <v>2110560</v>
       </c>
     </row>
     <row r="21">
@@ -803,11 +803,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1516904</v>
+        <v>1522529</v>
       </c>
     </row>
     <row r="22">
@@ -821,11 +821,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3696286</v>
+        <v>3710549</v>
       </c>
     </row>
     <row r="23">
@@ -839,11 +839,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>534013</v>
+        <v>536935</v>
       </c>
     </row>
     <row r="24">
@@ -857,11 +857,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>195619</v>
+        <v>197379</v>
       </c>
     </row>
     <row r="25">
@@ -875,11 +875,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2503854</v>
+        <v>2512839</v>
       </c>
     </row>
     <row r="26">
@@ -893,11 +893,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9111079</v>
+        <v>9202153</v>
       </c>
     </row>
     <row r="27">
@@ -911,11 +911,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>859543</v>
+        <v>864669</v>
       </c>
     </row>
     <row r="28">
@@ -929,11 +929,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>743866</v>
+        <v>746663</v>
       </c>
     </row>
     <row r="29">
@@ -947,11 +947,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>350298</v>
+        <v>352928</v>
       </c>
     </row>
     <row r="30">
@@ -965,11 +965,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1067917</v>
+        <v>1072791</v>
       </c>
     </row>
     <row r="31">
@@ -983,11 +983,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>233785</v>
+        <v>234207</v>
       </c>
     </row>
     <row r="32">
@@ -1001,11 +1001,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1008019</v>
+        <v>1019536</v>
       </c>
     </row>
     <row r="33">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5050941</v>
+        <v>5084237</v>
       </c>
     </row>
     <row r="34">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2638321</v>
+        <v>2645740</v>
       </c>
     </row>
     <row r="35">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>100876</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="36">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1241045</v>
+        <v>1248800</v>
       </c>
     </row>
     <row r="37">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1958069</v>
+        <v>1966481</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2543477</v>
+        <v>2548231</v>
       </c>
     </row>
     <row r="39">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1291228</v>
+        <v>1296558</v>
       </c>
     </row>
     <row r="40">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>972875</v>
+        <v>976936</v>
       </c>
     </row>
     <row r="41">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7037785</v>
+        <v>7071457</v>
       </c>
     </row>
     <row r="42">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2303752</v>
+        <v>2308189</v>
       </c>
     </row>
     <row r="43">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1574045</v>
+        <v>1581090</v>
       </c>
     </row>
     <row r="44">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3339188</v>
+        <v>3344884</v>
       </c>
     </row>
     <row r="45">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3054336</v>
+        <v>3071745</v>
       </c>
     </row>
     <row r="46">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1301116</v>
+        <v>1308471</v>
       </c>
     </row>
     <row r="47">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2095500</v>
+        <v>2110560</v>
       </c>
     </row>
     <row r="48">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1516904</v>
+        <v>1522529</v>
       </c>
     </row>
     <row r="49">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3696286</v>
+        <v>3710549</v>
       </c>
     </row>
     <row r="50">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>534013</v>
+        <v>536935</v>
       </c>
     </row>
     <row r="51">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>195619</v>
+        <v>197379</v>
       </c>
     </row>
     <row r="52">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2503854</v>
+        <v>2512839</v>
       </c>
     </row>
     <row r="53">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9111079</v>
+        <v>9202153</v>
       </c>
     </row>
     <row r="54">
@@ -1397,11 +1397,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>859543</v>
+        <v>864669</v>
       </c>
     </row>
     <row r="55">
@@ -1415,11 +1415,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>743866</v>
+        <v>746663</v>
       </c>
     </row>
     <row r="56">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1314339</v>
+        <v>1314380</v>
       </c>
     </row>
     <row r="57">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1679100</v>
+        <v>1701488</v>
       </c>
     </row>
     <row r="59">
@@ -1487,11 +1487,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1314339</v>
+        <v>1314380</v>
       </c>
     </row>
     <row r="60">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1523,11 +1523,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/home/pedro/Documentos/Doutorado/MO412/final_project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1679100</v>
+        <v>1701488</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/processing_statistics.xlsx
+++ b/data/output/processing_statistics.xlsx
@@ -461,11 +461,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>352928</v>
+        <v>354957</v>
       </c>
     </row>
     <row r="3">
@@ -479,11 +479,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1072791</v>
+        <v>1077268</v>
       </c>
     </row>
     <row r="4">
@@ -497,11 +497,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>234207</v>
+        <v>236189</v>
       </c>
     </row>
     <row r="5">
@@ -515,11 +515,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1019536</v>
+        <v>1026741</v>
       </c>
     </row>
     <row r="6">
@@ -533,11 +533,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5084237</v>
+        <v>5109864</v>
       </c>
     </row>
     <row r="7">
@@ -551,11 +551,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2645740</v>
+        <v>2660820</v>
       </c>
     </row>
     <row r="8">
@@ -569,11 +569,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>102000</v>
+        <v>103065</v>
       </c>
     </row>
     <row r="9">
@@ -587,11 +587,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1248800</v>
+        <v>1252587</v>
       </c>
     </row>
     <row r="10">
@@ -605,11 +605,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1966481</v>
+        <v>1973666</v>
       </c>
     </row>
     <row r="11">
@@ -623,11 +623,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2548231</v>
+        <v>2557270</v>
       </c>
     </row>
     <row r="12">
@@ -641,11 +641,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1296558</v>
+        <v>1301109</v>
       </c>
     </row>
     <row r="13">
@@ -659,11 +659,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>976936</v>
+        <v>979687</v>
       </c>
     </row>
     <row r="14">
@@ -677,11 +677,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7071457</v>
+        <v>7097066</v>
       </c>
     </row>
     <row r="15">
@@ -695,11 +695,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2308189</v>
+        <v>2323741</v>
       </c>
     </row>
     <row r="16">
@@ -713,11 +713,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1581090</v>
+        <v>1585074</v>
       </c>
     </row>
     <row r="17">
@@ -731,11 +731,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3344884</v>
+        <v>3361230</v>
       </c>
     </row>
     <row r="18">
@@ -749,11 +749,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3071745</v>
+        <v>3085171</v>
       </c>
     </row>
     <row r="19">
@@ -767,11 +767,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1308471</v>
+        <v>1314846</v>
       </c>
     </row>
     <row r="20">
@@ -785,11 +785,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2110560</v>
+        <v>2124822</v>
       </c>
     </row>
     <row r="21">
@@ -803,11 +803,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1522529</v>
+        <v>1530749</v>
       </c>
     </row>
     <row r="22">
@@ -821,11 +821,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3710549</v>
+        <v>3724089</v>
       </c>
     </row>
     <row r="23">
@@ -839,11 +839,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>536935</v>
+        <v>539053</v>
       </c>
     </row>
     <row r="24">
@@ -857,11 +857,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197379</v>
+        <v>199068</v>
       </c>
     </row>
     <row r="25">
@@ -875,11 +875,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2512839</v>
+        <v>2520609</v>
       </c>
     </row>
     <row r="26">
@@ -893,11 +893,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9202153</v>
+        <v>9255253</v>
       </c>
     </row>
     <row r="27">
@@ -911,11 +911,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>864669</v>
+        <v>868964</v>
       </c>
     </row>
     <row r="28">
@@ -929,11 +929,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>746663</v>
+        <v>748616</v>
       </c>
     </row>
     <row r="29">
@@ -947,11 +947,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>352928</v>
+        <v>354957</v>
       </c>
     </row>
     <row r="30">
@@ -965,11 +965,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1072791</v>
+        <v>1077268</v>
       </c>
     </row>
     <row r="31">
@@ -983,11 +983,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>234207</v>
+        <v>236189</v>
       </c>
     </row>
     <row r="32">
@@ -1001,11 +1001,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1019536</v>
+        <v>1026741</v>
       </c>
     </row>
     <row r="33">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5084237</v>
+        <v>5109864</v>
       </c>
     </row>
     <row r="34">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2645740</v>
+        <v>2660820</v>
       </c>
     </row>
     <row r="35">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>102000</v>
+        <v>103065</v>
       </c>
     </row>
     <row r="36">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1248800</v>
+        <v>1252587</v>
       </c>
     </row>
     <row r="37">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1966481</v>
+        <v>1973666</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2548231</v>
+        <v>2557270</v>
       </c>
     </row>
     <row r="39">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1296558</v>
+        <v>1301109</v>
       </c>
     </row>
     <row r="40">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>976936</v>
+        <v>979687</v>
       </c>
     </row>
     <row r="41">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7071457</v>
+        <v>7097066</v>
       </c>
     </row>
     <row r="42">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2308189</v>
+        <v>2323741</v>
       </c>
     </row>
     <row r="43">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1581090</v>
+        <v>1585074</v>
       </c>
     </row>
     <row r="44">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3344884</v>
+        <v>3361230</v>
       </c>
     </row>
     <row r="45">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3071745</v>
+        <v>3085171</v>
       </c>
     </row>
     <row r="46">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1308471</v>
+        <v>1314846</v>
       </c>
     </row>
     <row r="47">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2110560</v>
+        <v>2124822</v>
       </c>
     </row>
     <row r="48">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1522529</v>
+        <v>1530749</v>
       </c>
     </row>
     <row r="49">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3710549</v>
+        <v>3724089</v>
       </c>
     </row>
     <row r="50">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>536935</v>
+        <v>539053</v>
       </c>
     </row>
     <row r="51">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>197379</v>
+        <v>199068</v>
       </c>
     </row>
     <row r="52">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2512839</v>
+        <v>2520609</v>
       </c>
     </row>
     <row r="53">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9202153</v>
+        <v>9255253</v>
       </c>
     </row>
     <row r="54">
@@ -1397,11 +1397,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>864669</v>
+        <v>868964</v>
       </c>
     </row>
     <row r="55">
@@ -1415,11 +1415,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>746663</v>
+        <v>748616</v>
       </c>
     </row>
     <row r="56">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1701488</v>
+        <v>1751861</v>
       </c>
     </row>
     <row r="59">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1523,11 +1523,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
+          <t>W:/Meu Drive/Doutorado IC-Unicamp/MO412 - Graphs Algorithms/07. Final Project/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1701488</v>
+        <v>1751861</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/processing_statistics.xlsx
+++ b/data/output/processing_statistics.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>352928</v>
+        <v>354957</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1072791</v>
+        <v>1077268</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>234207</v>
+        <v>236189</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1019536</v>
+        <v>1026741</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5084237</v>
+        <v>5109864</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2645740</v>
+        <v>2660820</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>102000</v>
+        <v>103065</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1248800</v>
+        <v>1252587</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1966481</v>
+        <v>1973666</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2548231</v>
+        <v>2557270</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1296558</v>
+        <v>1301109</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>976936</v>
+        <v>979687</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7071457</v>
+        <v>7097066</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2308189</v>
+        <v>2323741</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1581090</v>
+        <v>1585074</v>
       </c>
     </row>
     <row r="17">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3344884</v>
+        <v>3361230</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3071745</v>
+        <v>3085171</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1308471</v>
+        <v>1314846</v>
       </c>
     </row>
     <row r="20">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2110560</v>
+        <v>2124822</v>
       </c>
     </row>
     <row r="21">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1522529</v>
+        <v>1530749</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3710549</v>
+        <v>3724089</v>
       </c>
     </row>
     <row r="23">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>536935</v>
+        <v>539053</v>
       </c>
     </row>
     <row r="24">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197379</v>
+        <v>199068</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2512839</v>
+        <v>2520609</v>
       </c>
     </row>
     <row r="26">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9202153</v>
+        <v>9255253</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>864669</v>
+        <v>868964</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>746663</v>
+        <v>748616</v>
       </c>
     </row>
     <row r="29">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>352928</v>
+        <v>354957</v>
       </c>
     </row>
     <row r="30">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1072791</v>
+        <v>1077268</v>
       </c>
     </row>
     <row r="31">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>234207</v>
+        <v>236189</v>
       </c>
     </row>
     <row r="32">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1019536</v>
+        <v>1026741</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5084237</v>
+        <v>5109864</v>
       </c>
     </row>
     <row r="34">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2645740</v>
+        <v>2660820</v>
       </c>
     </row>
     <row r="35">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>102000</v>
+        <v>103065</v>
       </c>
     </row>
     <row r="36">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1248800</v>
+        <v>1252587</v>
       </c>
     </row>
     <row r="37">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1966481</v>
+        <v>1973666</v>
       </c>
     </row>
     <row r="38">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2548231</v>
+        <v>2557270</v>
       </c>
     </row>
     <row r="39">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1296558</v>
+        <v>1301109</v>
       </c>
     </row>
     <row r="40">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>976936</v>
+        <v>979687</v>
       </c>
     </row>
     <row r="41">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7071457</v>
+        <v>7097066</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2308189</v>
+        <v>2323741</v>
       </c>
     </row>
     <row r="43">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1581090</v>
+        <v>1585074</v>
       </c>
     </row>
     <row r="44">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3344884</v>
+        <v>3361230</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3071745</v>
+        <v>3085171</v>
       </c>
     </row>
     <row r="46">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1308471</v>
+        <v>1314846</v>
       </c>
     </row>
     <row r="47">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2110560</v>
+        <v>2124822</v>
       </c>
     </row>
     <row r="48">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1522529</v>
+        <v>1530749</v>
       </c>
     </row>
     <row r="49">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3710549</v>
+        <v>3724089</v>
       </c>
     </row>
     <row r="50">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>536935</v>
+        <v>539053</v>
       </c>
     </row>
     <row r="51">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>197379</v>
+        <v>199068</v>
       </c>
     </row>
     <row r="52">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2512839</v>
+        <v>2520609</v>
       </c>
     </row>
     <row r="53">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9202153</v>
+        <v>9255253</v>
       </c>
     </row>
     <row r="54">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>864669</v>
+        <v>868964</v>
       </c>
     </row>
     <row r="55">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>746663</v>
+        <v>748616</v>
       </c>
     </row>
     <row r="56">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1701488</v>
+        <v>1751861</v>
       </c>
     </row>
     <row r="59">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1701488</v>
+        <v>1751861</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/processing_statistics.xlsx
+++ b/data/output/processing_statistics.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,1120 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sheet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>number of rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>354957</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1077268</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>236189</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1026741</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5109864</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2660820</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>103065</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1252587</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1973666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2557270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1301109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>979687</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7097066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2323741</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1585074</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3361230</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3085171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1314846</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2124822</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1530749</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3724089</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>539053</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>199068</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2520609</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9255253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>868964</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>748616</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AC.csv.gz</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>354957</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AL.csv.gz</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1077268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AP.csv.gz</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>236189</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_AM.csv.gz</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1026741</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_BA.csv.gz</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5109864</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_CE.csv.gz</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2660820</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_DF.csv.gz</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>103065</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_ES.csv.gz</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1252587</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_GO.csv.gz</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1973666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MA.csv.gz</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2557270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MT.csv.gz</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1301109</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MS.csv.gz</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>979687</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_MG.csv.gz</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7097066</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PA.csv.gz</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2323741</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PB.csv.gz</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1585074</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PR.csv.gz</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3361230</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PE.csv.gz</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3085171</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_PI.csv.gz</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1314846</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RJ.csv.gz</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2124822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RN.csv.gz</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1530749</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RS.csv.gz</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3724089</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RO.csv.gz</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>539053</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_RR.csv.gz</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>199068</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SC.csv.gz</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2520609</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SP.csv.gz</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>9255253</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_SE.csv.gz</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>868964</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/processed_TO.csv.gz</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>748616</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Covid Deaths</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1314380</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Covid Deaths</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2042733</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Covid Deaths</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1751861</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Covid Cases</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2020.csv.gz</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1314380</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Covid Cases</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time_2021.csv.gz</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2042733</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Covid Cases</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>C:/Users/Pedro/Documents/Covid19VaccinationProject/source/../data/input/cases-brazil-cities-time.csv.gz</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1751861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>